--- a/book.xlsx
+++ b/book.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
